--- a/data/valuation_pivot.xlsx
+++ b/data/valuation_pivot.xlsx
@@ -34,9 +34,6 @@
     <t>rent</t>
   </si>
   <si>
-    <t>('20,000', '44,000')</t>
-  </si>
-  <si>
     <t>('21,000', '46,000')</t>
   </si>
   <si>
@@ -50,6 +47,9 @@
   </si>
   <si>
     <t>('25,000', '54,000')</t>
+  </si>
+  <si>
+    <t>('26,000', '56,000')</t>
   </si>
 </sst>
 </file>
@@ -438,19 +438,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>118480.0573575</v>
+        <v>123728.145874875</v>
       </c>
       <c r="C2">
-        <v>114365.5381013415</v>
+        <v>119432.3548073781</v>
       </c>
       <c r="D2">
-        <v>110542.5963948</v>
+        <v>115440.9333867</v>
       </c>
       <c r="E2">
-        <v>106980.1099618605</v>
+        <v>111721.3980157513</v>
       </c>
       <c r="F2">
-        <v>103651.346515303</v>
+        <v>108245.8467232197</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -458,19 +458,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>123728.145874875</v>
+        <v>128976.23439225</v>
       </c>
       <c r="C3">
-        <v>119432.3548073781</v>
+        <v>124499.1715134146</v>
       </c>
       <c r="D3">
-        <v>115440.9333867</v>
+        <v>120339.2703786</v>
       </c>
       <c r="E3">
-        <v>111721.3980157513</v>
+        <v>116462.6860696422</v>
       </c>
       <c r="F3">
-        <v>108245.8467232197</v>
+        <v>112840.3469311363</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -478,19 +478,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>128976.23439225</v>
+        <v>134224.322909625</v>
       </c>
       <c r="C4">
-        <v>124499.1715134146</v>
+        <v>129565.9882194512</v>
       </c>
       <c r="D4">
-        <v>120339.2703786</v>
+        <v>125237.6073705</v>
       </c>
       <c r="E4">
-        <v>116462.6860696422</v>
+        <v>121203.9741235331</v>
       </c>
       <c r="F4">
-        <v>112840.3469311363</v>
+        <v>117434.847139053</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -498,19 +498,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>134224.322909625</v>
+        <v>139472.411427</v>
       </c>
       <c r="C5">
-        <v>129565.9882194512</v>
+        <v>134632.8049254878</v>
       </c>
       <c r="D5">
-        <v>125237.6073705</v>
+        <v>130135.9443624</v>
       </c>
       <c r="E5">
-        <v>121203.9741235331</v>
+        <v>125945.262177424</v>
       </c>
       <c r="F5">
-        <v>117434.847139053</v>
+        <v>122029.3473469697</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -518,19 +518,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>139472.411427</v>
+        <v>144720.499944375</v>
       </c>
       <c r="C6">
-        <v>134632.8049254878</v>
+        <v>139699.6216315244</v>
       </c>
       <c r="D6">
-        <v>130135.9443624</v>
+        <v>135034.2813543</v>
       </c>
       <c r="E6">
-        <v>125945.262177424</v>
+        <v>130686.5502313148</v>
       </c>
       <c r="F6">
-        <v>122029.3473469697</v>
+        <v>126623.8475548863</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -538,19 +538,19 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>144720.499944375</v>
+        <v>149968.58846175</v>
       </c>
       <c r="C7">
-        <v>139699.6216315244</v>
+        <v>144766.438337561</v>
       </c>
       <c r="D7">
-        <v>135034.2813543</v>
+        <v>139932.6183462</v>
       </c>
       <c r="E7">
-        <v>130686.5502313148</v>
+        <v>135427.8382852057</v>
       </c>
       <c r="F7">
-        <v>126623.8475548863</v>
+        <v>131218.347762803</v>
       </c>
     </row>
   </sheetData>
